--- a/data/股票基金收益率分解.xlsx
+++ b/data/股票基金收益率分解.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\zjsxzy_in_js\FOF\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>基金名称</t>
   </si>
@@ -39,48 +34,72 @@
     <t>科技</t>
   </si>
   <si>
-    <t>000595.OF</t>
+    <t>000176.OF</t>
+  </si>
+  <si>
+    <t>160716.OF</t>
+  </si>
+  <si>
+    <t>005662.OF</t>
+  </si>
+  <si>
+    <t>070019.OF</t>
+  </si>
+  <si>
+    <t>000008.OF</t>
+  </si>
+  <si>
+    <t>000711.OF</t>
+  </si>
+  <si>
+    <t>003053.OF</t>
+  </si>
+  <si>
+    <t>070011.OF</t>
   </si>
   <si>
     <t>070021.OF</t>
   </si>
   <si>
-    <t>003634.OF</t>
-  </si>
-  <si>
-    <t>005662.OF</t>
-  </si>
-  <si>
-    <t>000751.OF</t>
-  </si>
-  <si>
     <t>组合</t>
   </si>
   <si>
-    <t>嘉实泰和</t>
+    <t>嘉实沪深300增强</t>
+  </si>
+  <si>
+    <t>嘉实基本面50指数(LOF)A</t>
+  </si>
+  <si>
+    <t>嘉实金融精选A</t>
+  </si>
+  <si>
+    <t>嘉实价值优势</t>
+  </si>
+  <si>
+    <t>嘉实中证500ETF联接A</t>
+  </si>
+  <si>
+    <t>嘉实医疗保健</t>
+  </si>
+  <si>
+    <t>嘉实文体娱乐A</t>
+  </si>
+  <si>
+    <t>嘉实策略增长</t>
   </si>
   <si>
     <t>嘉实主题新动力</t>
-  </si>
-  <si>
-    <t>嘉实农业产业</t>
-  </si>
-  <si>
-    <t>嘉实金融精选A</t>
-  </si>
-  <si>
-    <t>嘉实新兴产业</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -88,22 +107,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -139,41 +144,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -215,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,10 +236,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,7 +270,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,186 +445,258 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3">
+        <v>16</v>
+      </c>
+      <c r="C2">
         <v>0.2</v>
       </c>
-      <c r="D2" s="3">
-        <v>-2.459782959890214E-18</v>
-      </c>
-      <c r="E2" s="3">
-        <v>-1.137012856378221E-17</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.72001448972579229</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.27998551027420793</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D2">
+        <v>0.570394188428293</v>
+      </c>
+      <c r="E2">
+        <v>0.1601262183692518</v>
+      </c>
+      <c r="F2">
+        <v>0.2132743490098497</v>
+      </c>
+      <c r="G2">
+        <v>0.05620524419260549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3">
+        <v>17</v>
+      </c>
+      <c r="C3">
         <v>0.199999531783562</v>
       </c>
-      <c r="D3" s="3">
-        <v>4.0998640557814783E-2</v>
-      </c>
-      <c r="E3" s="3">
-        <v>7.3685185595122299E-2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.19308734784322329</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.69222882600383961</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D3">
+        <v>0.7960867361909416</v>
+      </c>
+      <c r="E3">
+        <v>0.1815270492199818</v>
+      </c>
+      <c r="F3">
+        <v>0.0223862145890765</v>
+      </c>
+      <c r="G3">
+        <v>-3.754050022231059e-18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.19999945082300699</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.1062826164126906</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.33260408119690171</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.4685682032593117</v>
-      </c>
-      <c r="G4" s="3">
-        <v>9.254509913109589E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>0.199999450823007</v>
+      </c>
+      <c r="D4">
+        <v>0.9586623527337849</v>
+      </c>
+      <c r="E4">
+        <v>-1.805196617188365e-17</v>
+      </c>
+      <c r="F4">
+        <v>0.04133764726621514</v>
+      </c>
+      <c r="G4">
+        <v>1.054386612742153e-17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.19999894600140999</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.93604636368658478</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.1275702593849251E-17</v>
-      </c>
-      <c r="F5" s="3">
-        <v>6.395363631341533E-2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>-9.6222942808088519E-18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>0.19999894600141</v>
+      </c>
+      <c r="D5">
+        <v>0.3923954478246822</v>
+      </c>
+      <c r="E5">
+        <v>0.2526065880005678</v>
+      </c>
+      <c r="F5">
+        <v>0.3362422323521219</v>
+      </c>
+      <c r="G5">
+        <v>0.01875573182262803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.19999894600140999</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.115206749919472</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.11377384658874461</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.69052257459791955</v>
-      </c>
-      <c r="G6" s="3">
-        <v>8.0496828893863864E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0.19999894600141</v>
+      </c>
+      <c r="D6">
+        <v>0.2895261270897794</v>
+      </c>
+      <c r="E6">
+        <v>0.1938933259368383</v>
+      </c>
+      <c r="F6">
+        <v>0.1598832017536333</v>
+      </c>
+      <c r="G6">
+        <v>0.3566973452197491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3">
-        <v>0.23970643770805761</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.1040126106795924</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.42722944265641161</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.2290515089559384</v>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>0.19999765891781</v>
+      </c>
+      <c r="D7">
+        <v>-5.522835469049275e-17</v>
+      </c>
+      <c r="E7">
+        <v>8.326672684688674e-17</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>-3.765946208419461e-17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>0.199997190701372</v>
+      </c>
+      <c r="D8">
+        <v>0.140587671550496</v>
+      </c>
+      <c r="E8">
+        <v>0.05444476600955318</v>
+      </c>
+      <c r="F8">
+        <v>0.1583049122166099</v>
+      </c>
+      <c r="G8">
+        <v>0.6466626502233409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>0.199996722484934</v>
+      </c>
+      <c r="D9">
+        <v>0.3255850844067079</v>
+      </c>
+      <c r="E9">
+        <v>0.3228705066557097</v>
+      </c>
+      <c r="F9">
+        <v>0.1225775109684894</v>
+      </c>
+      <c r="G9">
+        <v>0.2289668979690929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>0.199996254268496</v>
+      </c>
+      <c r="D10">
+        <v>0.01489351461861529</v>
+      </c>
+      <c r="E10">
+        <v>0.1423004721384981</v>
+      </c>
+      <c r="F10">
+        <v>0.1432510488516947</v>
+      </c>
+      <c r="G10">
+        <v>0.6995549643911919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>0.387571676791254</v>
+      </c>
+      <c r="E11">
+        <v>0.1453076158565358</v>
+      </c>
+      <c r="F11">
+        <v>0.2441393768099463</v>
+      </c>
+      <c r="G11">
+        <v>0.2229813305422636</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D2:G7">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/股票基金收益率分解.xlsx
+++ b/data/股票基金收益率分解.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>基金名称</t>
   </si>
@@ -31,64 +31,58 @@
     <t>必选医药</t>
   </si>
   <si>
-    <t>科技</t>
-  </si>
-  <si>
-    <t>000176.OF</t>
+    <t>信息科技</t>
   </si>
   <si>
     <t>160716.OF</t>
   </si>
   <si>
-    <t>005662.OF</t>
-  </si>
-  <si>
-    <t>070019.OF</t>
-  </si>
-  <si>
-    <t>000008.OF</t>
-  </si>
-  <si>
-    <t>000711.OF</t>
-  </si>
-  <si>
-    <t>003053.OF</t>
-  </si>
-  <si>
-    <t>070011.OF</t>
-  </si>
-  <si>
-    <t>070021.OF</t>
+    <t>110022.OF</t>
+  </si>
+  <si>
+    <t>001717.OF</t>
+  </si>
+  <si>
+    <t>001071.OF</t>
+  </si>
+  <si>
+    <t>519069.OF</t>
+  </si>
+  <si>
+    <t>163407.OF</t>
+  </si>
+  <si>
+    <t>519736.OF</t>
+  </si>
+  <si>
+    <t>001938.OF</t>
   </si>
   <si>
     <t>组合</t>
   </si>
   <si>
-    <t>嘉实沪深300增强</t>
-  </si>
-  <si>
     <t>嘉实基本面50指数(LOF)A</t>
   </si>
   <si>
-    <t>嘉实金融精选A</t>
-  </si>
-  <si>
-    <t>嘉实价值优势</t>
-  </si>
-  <si>
-    <t>嘉实中证500ETF联接A</t>
-  </si>
-  <si>
-    <t>嘉实医疗保健</t>
-  </si>
-  <si>
-    <t>嘉实文体娱乐A</t>
-  </si>
-  <si>
-    <t>嘉实策略增长</t>
-  </si>
-  <si>
-    <t>嘉实主题新动力</t>
+    <t>易方达消费行业</t>
+  </si>
+  <si>
+    <t>工银瑞信前沿医疗</t>
+  </si>
+  <si>
+    <t>华安媒体互联网</t>
+  </si>
+  <si>
+    <t>汇添富价值精选A</t>
+  </si>
+  <si>
+    <t>兴全沪深300指数增强A</t>
+  </si>
+  <si>
+    <t>交银新成长</t>
+  </si>
+  <si>
+    <t>中欧时代先锋A</t>
   </si>
 </sst>
 </file>
@@ -446,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,22 +471,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>0.042778573520064</v>
       </c>
       <c r="D2">
-        <v>0.570394188428293</v>
+        <v>0.8853304634437017</v>
       </c>
       <c r="E2">
-        <v>0.1601262183692518</v>
+        <v>0.1146695365562984</v>
       </c>
       <c r="F2">
-        <v>0.2132743490098497</v>
+        <v>-1.515172536048492e-17</v>
       </c>
       <c r="G2">
-        <v>0.05620524419260549</v>
+        <v>-1.250220630147347e-17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -500,22 +494,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>0.199999531783562</v>
+        <v>0.03753656574109</v>
       </c>
       <c r="D3">
-        <v>0.7960867361909416</v>
+        <v>-4.127421971453679e-17</v>
       </c>
       <c r="E3">
-        <v>0.1815270492199818</v>
+        <v>0.8429878242663675</v>
       </c>
       <c r="F3">
-        <v>0.0223862145890765</v>
+        <v>0.1570121757336325</v>
       </c>
       <c r="G3">
-        <v>-3.754050022231059e-18</v>
+        <v>3.175583015004874e-17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -523,22 +517,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>0.199999450823007</v>
+        <v>0.035411638811558</v>
       </c>
       <c r="D4">
-        <v>0.9586623527337849</v>
+        <v>2.709489330856958e-17</v>
       </c>
       <c r="E4">
-        <v>-1.805196617188365e-17</v>
+        <v>-2.029626466892864e-16</v>
       </c>
       <c r="F4">
-        <v>0.04133764726621514</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.054386612742153e-17</v>
+        <v>-7.123320849124311e-17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -546,22 +540,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>0.19999894600141</v>
+        <v>0.031037604736766</v>
       </c>
       <c r="D5">
-        <v>0.3923954478246822</v>
+        <v>-3.659182345063275e-18</v>
       </c>
       <c r="E5">
-        <v>0.2526065880005678</v>
+        <v>-6.328556301265777e-19</v>
       </c>
       <c r="F5">
-        <v>0.3362422323521219</v>
+        <v>0.09204380490491698</v>
       </c>
       <c r="G5">
-        <v>0.01875573182262803</v>
+        <v>0.9079561950950831</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -569,22 +563,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>0.19999894600141</v>
+        <v>0.026496393299791</v>
       </c>
       <c r="D6">
-        <v>0.2895261270897794</v>
+        <v>0.4864837087175195</v>
       </c>
       <c r="E6">
-        <v>0.1938933259368383</v>
+        <v>0.2221526988085617</v>
       </c>
       <c r="F6">
-        <v>0.1598832017536333</v>
+        <v>0.2652340357120217</v>
       </c>
       <c r="G6">
-        <v>0.3566973452197491</v>
+        <v>0.02612955676189711</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -592,22 +586,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>0.19999765891781</v>
+        <v>0.024771973034378</v>
       </c>
       <c r="D7">
-        <v>-5.522835469049275e-17</v>
+        <v>0.6001603108706718</v>
       </c>
       <c r="E7">
-        <v>8.326672684688674e-17</v>
+        <v>0.2524784774453348</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.1095960529018171</v>
       </c>
       <c r="G7">
-        <v>-3.765946208419461e-17</v>
+        <v>0.03776515878217621</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -615,22 +609,22 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>0.199997190701372</v>
+        <v>0.016175941306545</v>
       </c>
       <c r="D8">
-        <v>0.140587671550496</v>
+        <v>0.4461703644232306</v>
       </c>
       <c r="E8">
-        <v>0.05444476600955318</v>
+        <v>0.1619655079655473</v>
       </c>
       <c r="F8">
-        <v>0.1583049122166099</v>
+        <v>0.1963888934720672</v>
       </c>
       <c r="G8">
-        <v>0.6466626502233409</v>
+        <v>0.195475234139155</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -638,62 +632,39 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>0.199996722484934</v>
+        <v>0.015608027420861</v>
       </c>
       <c r="D9">
-        <v>0.3255850844067079</v>
+        <v>0.2807715667228782</v>
       </c>
       <c r="E9">
-        <v>0.3228705066557097</v>
+        <v>0.0876584687007176</v>
       </c>
       <c r="F9">
-        <v>0.1225775109684894</v>
+        <v>0.3083855788434815</v>
       </c>
       <c r="G9">
-        <v>0.2289668979690929</v>
+        <v>0.3231843857329228</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10">
-        <v>0.199996254268496</v>
-      </c>
       <c r="D10">
-        <v>0.01489351461861529</v>
+        <v>0.3360500040761294</v>
       </c>
       <c r="E10">
-        <v>0.1423004721384981</v>
+        <v>0.2292131887599222</v>
       </c>
       <c r="F10">
-        <v>0.1432510488516947</v>
+        <v>0.2693227805850639</v>
       </c>
       <c r="G10">
-        <v>0.6995549643911919</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>0.387571676791254</v>
-      </c>
-      <c r="E11">
-        <v>0.1453076158565358</v>
-      </c>
-      <c r="F11">
-        <v>0.2441393768099463</v>
-      </c>
-      <c r="G11">
-        <v>0.2229813305422636</v>
+        <v>0.1654140265788846</v>
       </c>
     </row>
   </sheetData>
